--- a/hema/4-扣款记录.xlsx
+++ b/hema/4-扣款记录.xlsx
@@ -1483,8 +1483,8 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.4230769230769" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1569,13 +1569,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="14" vm="1" t="e" cm="1">
         <f t="array" ref="A2">_xlfn.LET(_xlpm.类目匹配,ISNUMBER(MATCH(数据源!J:J,数据汇总!$B$2:$B$6,0)),_xlpm.状态筛选,数据源!O:O="计费成功",_xlfn._xlws.SORT(_xlfn._xlws.FILTER(数据源!A:S,_xlpm.类目匹配*_xlpm.状态筛选),10,1))</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1588,7 +1589,7 @@
   </sheetPr>
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/hema/4-扣款记录.xlsx
+++ b/hema/4-扣款记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" activeTab="3"/>
+    <workbookView windowHeight="16360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="3" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.4230769230769" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1590,7 +1590,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="28.8"/>
@@ -1795,9 +1795,7 @@
       <c r="L13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="7:13">
       <c r="G14" s="5"/>
@@ -1809,9 +1807,7 @@
       <c r="L14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="7:13">
       <c r="G15" s="5"/>
@@ -1823,9 +1819,7 @@
       <c r="L15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="7:13">
       <c r="G16" s="5"/>
@@ -1837,9 +1831,7 @@
       <c r="L16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="7:13">
       <c r="G17" s="5"/>
@@ -1851,9 +1843,7 @@
       <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="7:13">
       <c r="G18" s="5"/>
@@ -1865,9 +1855,7 @@
       <c r="L18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="7:13">
       <c r="G19" s="5"/>
@@ -1879,9 +1867,7 @@
       <c r="L19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="7:13">
       <c r="G20" s="5"/>
@@ -1898,7 +1884,7 @@
       </c>
       <c r="M20" s="10">
         <f>SUM(E5)-SUM(M13:M19)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1924,8 +1910,8 @@
   </sheetPr>
   <dimension ref="A1:S353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:S172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9379,8 +9365,8 @@
   </sheetPr>
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
